--- a/Resources/New Steel to Geo_MATCHED.xlsx
+++ b/Resources/New Steel to Geo_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -148,6 +148,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3830,286 +3839,238 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B76" s="10" t="inlineStr"/>
-      <c r="C76" s="11" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr"/>
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>24/Dec/2025</t>
         </is>
       </c>
-      <c r="D76" s="9" t="inlineStr">
+      <c r="D76" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E76" s="12" t="inlineStr">
+      <c r="E76" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F76" s="9" t="inlineStr"/>
-      <c r="G76" s="9" t="inlineStr"/>
-      <c r="H76" s="13" t="inlineStr">
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr"/>
+      <c r="H76" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I76" s="9" t="inlineStr">
+      <c r="I76" s="1" t="inlineStr">
         <is>
           <t>73092</t>
         </is>
       </c>
-      <c r="J76" s="14" t="inlineStr">
+      <c r="J76" s="8" t="inlineStr">
         <is>
           <t>45000000</t>
         </is>
       </c>
-      <c r="K76" s="9" t="inlineStr"/>
-      <c r="L76" s="9" t="inlineStr"/>
-      <c r="M76" s="9" t="inlineStr"/>
-      <c r="N76" s="9" t="inlineStr"/>
-      <c r="O76" s="9" t="inlineStr"/>
-      <c r="P76" s="9" t="inlineStr"/>
-      <c r="Q76" s="9" t="inlineStr"/>
-      <c r="R76" s="9" t="inlineStr"/>
-      <c r="S76" s="9" t="inlineStr"/>
-      <c r="T76" s="9" t="inlineStr"/>
-      <c r="U76" s="9" t="inlineStr"/>
-      <c r="V76" s="9" t="inlineStr"/>
-      <c r="W76" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K76" s="1" t="inlineStr"/>
+      <c r="L76" s="1" t="inlineStr"/>
+      <c r="M76" s="1" t="inlineStr"/>
+      <c r="N76" s="1" t="inlineStr"/>
+      <c r="O76" s="1" t="inlineStr"/>
+      <c r="P76" s="1" t="inlineStr"/>
+      <c r="Q76" s="1" t="inlineStr"/>
+      <c r="R76" s="1" t="inlineStr"/>
+      <c r="S76" s="1" t="inlineStr"/>
+      <c r="T76" s="1" t="inlineStr"/>
+      <c r="U76" s="1" t="inlineStr"/>
+      <c r="V76" s="1" t="inlineStr"/>
+      <c r="W76" s="1" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B77" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 45000000.00
-Borrower Amount: 45000000.00</t>
-        </is>
-      </c>
-      <c r="C77" s="9" t="inlineStr"/>
-      <c r="D77" s="9" t="inlineStr"/>
-      <c r="E77" s="15" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr"/>
+      <c r="D77" s="1" t="inlineStr"/>
+      <c r="E77" s="26" t="inlineStr">
         <is>
           <t>Amount paid as Interunit Loan A/C-Geo Textile Unit., BBL# 0002</t>
         </is>
       </c>
-      <c r="F77" s="9" t="inlineStr"/>
-      <c r="G77" s="9" t="inlineStr"/>
-      <c r="H77" s="9" t="inlineStr"/>
-      <c r="I77" s="9" t="inlineStr"/>
-      <c r="J77" s="9" t="inlineStr"/>
-      <c r="K77" s="9" t="inlineStr"/>
-      <c r="L77" s="9" t="inlineStr"/>
-      <c r="M77" s="9" t="inlineStr"/>
-      <c r="N77" s="9" t="inlineStr"/>
-      <c r="O77" s="9" t="inlineStr"/>
-      <c r="P77" s="9" t="inlineStr"/>
-      <c r="Q77" s="9" t="inlineStr"/>
-      <c r="R77" s="9" t="inlineStr"/>
-      <c r="S77" s="9" t="inlineStr"/>
-      <c r="T77" s="9" t="inlineStr"/>
-      <c r="U77" s="9" t="inlineStr"/>
-      <c r="V77" s="9" t="inlineStr"/>
-      <c r="W77" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F77" s="1" t="inlineStr"/>
+      <c r="G77" s="1" t="inlineStr"/>
+      <c r="H77" s="1" t="inlineStr"/>
+      <c r="I77" s="1" t="inlineStr"/>
+      <c r="J77" s="1" t="inlineStr"/>
+      <c r="K77" s="1" t="inlineStr"/>
+      <c r="L77" s="1" t="inlineStr"/>
+      <c r="M77" s="1" t="inlineStr"/>
+      <c r="N77" s="1" t="inlineStr"/>
+      <c r="O77" s="1" t="inlineStr"/>
+      <c r="P77" s="1" t="inlineStr"/>
+      <c r="Q77" s="1" t="inlineStr"/>
+      <c r="R77" s="1" t="inlineStr"/>
+      <c r="S77" s="1" t="inlineStr"/>
+      <c r="T77" s="1" t="inlineStr"/>
+      <c r="U77" s="1" t="inlineStr"/>
+      <c r="V77" s="1" t="inlineStr"/>
+      <c r="W77" s="1" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B78" s="10" t="inlineStr"/>
-      <c r="C78" s="9" t="inlineStr"/>
-      <c r="D78" s="9" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr"/>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E78" s="16" t="inlineStr">
+      <c r="E78" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F78" s="9" t="inlineStr"/>
-      <c r="G78" s="9" t="inlineStr"/>
-      <c r="H78" s="9" t="inlineStr"/>
-      <c r="I78" s="9" t="inlineStr"/>
-      <c r="J78" s="9" t="inlineStr"/>
-      <c r="K78" s="9" t="inlineStr"/>
-      <c r="L78" s="9" t="inlineStr"/>
-      <c r="M78" s="9" t="inlineStr"/>
-      <c r="N78" s="9" t="inlineStr"/>
-      <c r="O78" s="9" t="inlineStr"/>
-      <c r="P78" s="9" t="inlineStr"/>
-      <c r="Q78" s="9" t="inlineStr"/>
-      <c r="R78" s="9" t="inlineStr"/>
-      <c r="S78" s="9" t="inlineStr"/>
-      <c r="T78" s="9" t="inlineStr"/>
-      <c r="U78" s="9" t="inlineStr"/>
-      <c r="V78" s="9" t="inlineStr"/>
-      <c r="W78" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
+      <c r="I78" s="1" t="inlineStr"/>
+      <c r="J78" s="1" t="inlineStr"/>
+      <c r="K78" s="1" t="inlineStr"/>
+      <c r="L78" s="1" t="inlineStr"/>
+      <c r="M78" s="1" t="inlineStr"/>
+      <c r="N78" s="1" t="inlineStr"/>
+      <c r="O78" s="1" t="inlineStr"/>
+      <c r="P78" s="1" t="inlineStr"/>
+      <c r="Q78" s="1" t="inlineStr"/>
+      <c r="R78" s="1" t="inlineStr"/>
+      <c r="S78" s="1" t="inlineStr"/>
+      <c r="T78" s="1" t="inlineStr"/>
+      <c r="U78" s="1" t="inlineStr"/>
+      <c r="V78" s="1" t="inlineStr"/>
+      <c r="W78" s="1" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="17" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B79" s="18" t="inlineStr"/>
-      <c r="C79" s="19" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr"/>
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>28/Dec/2025</t>
         </is>
       </c>
-      <c r="D79" s="17" t="inlineStr">
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E79" s="20" t="inlineStr">
+      <c r="E79" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F79" s="17" t="inlineStr"/>
-      <c r="G79" s="17" t="inlineStr"/>
-      <c r="H79" s="21" t="inlineStr">
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I79" s="17" t="inlineStr">
+      <c r="I79" s="1" t="inlineStr">
         <is>
           <t>73094</t>
         </is>
       </c>
-      <c r="J79" s="22" t="inlineStr">
+      <c r="J79" s="8" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="K79" s="17" t="inlineStr"/>
-      <c r="L79" s="17" t="inlineStr"/>
-      <c r="M79" s="17" t="inlineStr"/>
-      <c r="N79" s="17" t="inlineStr"/>
-      <c r="O79" s="17" t="inlineStr"/>
-      <c r="P79" s="17" t="inlineStr"/>
-      <c r="Q79" s="17" t="inlineStr"/>
-      <c r="R79" s="17" t="inlineStr"/>
-      <c r="S79" s="17" t="inlineStr"/>
-      <c r="T79" s="17" t="inlineStr"/>
-      <c r="U79" s="17" t="inlineStr"/>
-      <c r="V79" s="17" t="inlineStr"/>
-      <c r="W79" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K79" s="1" t="inlineStr"/>
+      <c r="L79" s="1" t="inlineStr"/>
+      <c r="M79" s="1" t="inlineStr"/>
+      <c r="N79" s="1" t="inlineStr"/>
+      <c r="O79" s="1" t="inlineStr"/>
+      <c r="P79" s="1" t="inlineStr"/>
+      <c r="Q79" s="1" t="inlineStr"/>
+      <c r="R79" s="1" t="inlineStr"/>
+      <c r="S79" s="1" t="inlineStr"/>
+      <c r="T79" s="1" t="inlineStr"/>
+      <c r="U79" s="1" t="inlineStr"/>
+      <c r="V79" s="1" t="inlineStr"/>
+      <c r="W79" s="1" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="17" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B80" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 100000.00
-Borrower Amount: 100000.00</t>
-        </is>
-      </c>
-      <c r="C80" s="17" t="inlineStr"/>
-      <c r="D80" s="17" t="inlineStr"/>
-      <c r="E80" s="23" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr"/>
+      <c r="D80" s="1" t="inlineStr"/>
+      <c r="E80" s="26" t="inlineStr">
         <is>
           <t>Amount paid as Interunit Loan A/C-Geo Textile Unit., BBL#0002</t>
         </is>
       </c>
-      <c r="F80" s="17" t="inlineStr"/>
-      <c r="G80" s="17" t="inlineStr"/>
-      <c r="H80" s="17" t="inlineStr"/>
-      <c r="I80" s="17" t="inlineStr"/>
-      <c r="J80" s="17" t="inlineStr"/>
-      <c r="K80" s="17" t="inlineStr"/>
-      <c r="L80" s="17" t="inlineStr"/>
-      <c r="M80" s="17" t="inlineStr"/>
-      <c r="N80" s="17" t="inlineStr"/>
-      <c r="O80" s="17" t="inlineStr"/>
-      <c r="P80" s="17" t="inlineStr"/>
-      <c r="Q80" s="17" t="inlineStr"/>
-      <c r="R80" s="17" t="inlineStr"/>
-      <c r="S80" s="17" t="inlineStr"/>
-      <c r="T80" s="17" t="inlineStr"/>
-      <c r="U80" s="17" t="inlineStr"/>
-      <c r="V80" s="17" t="inlineStr"/>
-      <c r="W80" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
+      <c r="I80" s="1" t="inlineStr"/>
+      <c r="J80" s="1" t="inlineStr"/>
+      <c r="K80" s="1" t="inlineStr"/>
+      <c r="L80" s="1" t="inlineStr"/>
+      <c r="M80" s="1" t="inlineStr"/>
+      <c r="N80" s="1" t="inlineStr"/>
+      <c r="O80" s="1" t="inlineStr"/>
+      <c r="P80" s="1" t="inlineStr"/>
+      <c r="Q80" s="1" t="inlineStr"/>
+      <c r="R80" s="1" t="inlineStr"/>
+      <c r="S80" s="1" t="inlineStr"/>
+      <c r="T80" s="1" t="inlineStr"/>
+      <c r="U80" s="1" t="inlineStr"/>
+      <c r="V80" s="1" t="inlineStr"/>
+      <c r="W80" s="1" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="17" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B81" s="18" t="inlineStr"/>
-      <c r="C81" s="17" t="inlineStr"/>
-      <c r="D81" s="17" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr"/>
+      <c r="C81" s="1" t="inlineStr"/>
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E81" s="24" t="inlineStr">
+      <c r="E81" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F81" s="17" t="inlineStr"/>
-      <c r="G81" s="17" t="inlineStr"/>
-      <c r="H81" s="17" t="inlineStr"/>
-      <c r="I81" s="17" t="inlineStr"/>
-      <c r="J81" s="17" t="inlineStr"/>
-      <c r="K81" s="17" t="inlineStr"/>
-      <c r="L81" s="17" t="inlineStr"/>
-      <c r="M81" s="17" t="inlineStr"/>
-      <c r="N81" s="17" t="inlineStr"/>
-      <c r="O81" s="17" t="inlineStr"/>
-      <c r="P81" s="17" t="inlineStr"/>
-      <c r="Q81" s="17" t="inlineStr"/>
-      <c r="R81" s="17" t="inlineStr"/>
-      <c r="S81" s="17" t="inlineStr"/>
-      <c r="T81" s="17" t="inlineStr"/>
-      <c r="U81" s="17" t="inlineStr"/>
-      <c r="V81" s="17" t="inlineStr"/>
-      <c r="W81" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F81" s="1" t="inlineStr"/>
+      <c r="G81" s="1" t="inlineStr"/>
+      <c r="H81" s="1" t="inlineStr"/>
+      <c r="I81" s="1" t="inlineStr"/>
+      <c r="J81" s="1" t="inlineStr"/>
+      <c r="K81" s="1" t="inlineStr"/>
+      <c r="L81" s="1" t="inlineStr"/>
+      <c r="M81" s="1" t="inlineStr"/>
+      <c r="N81" s="1" t="inlineStr"/>
+      <c r="O81" s="1" t="inlineStr"/>
+      <c r="P81" s="1" t="inlineStr"/>
+      <c r="Q81" s="1" t="inlineStr"/>
+      <c r="R81" s="1" t="inlineStr"/>
+      <c r="S81" s="1" t="inlineStr"/>
+      <c r="T81" s="1" t="inlineStr"/>
+      <c r="U81" s="1" t="inlineStr"/>
+      <c r="V81" s="1" t="inlineStr"/>
+      <c r="W81" s="1" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
@@ -4754,7 +4715,7 @@
       <c r="H96" s="1" t="inlineStr"/>
       <c r="I96" s="1" t="inlineStr"/>
       <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="25" t="inlineStr">
+      <c r="K96" s="28" t="inlineStr">
         <is>
           <t>177614081</t>
         </is>
@@ -4791,7 +4752,7 @@
       <c r="H97" s="1" t="inlineStr"/>
       <c r="I97" s="1" t="inlineStr"/>
       <c r="J97" s="1" t="inlineStr"/>
-      <c r="K97" s="25" t="inlineStr">
+      <c r="K97" s="28" t="inlineStr">
         <is>
           <t>525572707.48</t>
         </is>
@@ -4824,7 +4785,7 @@
       <c r="H98" s="1" t="inlineStr"/>
       <c r="I98" s="1" t="inlineStr"/>
       <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="25" t="inlineStr">
+      <c r="K98" s="28" t="inlineStr">
         <is>
           <t>703186788.48</t>
         </is>

--- a/Resources/New Steel to Geo_MATCHED.xlsx
+++ b/Resources/New Steel to Geo_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -148,15 +148,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2684,7 +2675,7 @@
     <row r="51">
       <c r="A51" s="17" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="B51" s="18" t="inlineStr"/>
@@ -2741,7 +2732,7 @@
     <row r="52">
       <c r="A52" s="17" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="B52" s="18" t="inlineStr">
@@ -2784,7 +2775,7 @@
     <row r="53">
       <c r="A53" s="17" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="B53" s="18" t="inlineStr"/>
@@ -3833,238 +3824,286 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr"/>
-      <c r="C76" s="6" t="inlineStr">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="inlineStr"/>
+      <c r="C76" s="11" t="inlineStr">
         <is>
           <t>24/Dec/2025</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D76" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E76" s="7" t="inlineStr">
+      <c r="E76" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="25" t="inlineStr">
+      <c r="F76" s="9" t="inlineStr"/>
+      <c r="G76" s="9" t="inlineStr"/>
+      <c r="H76" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I76" s="1" t="inlineStr">
+      <c r="I76" s="9" t="inlineStr">
         <is>
           <t>73092</t>
         </is>
       </c>
-      <c r="J76" s="8" t="inlineStr">
+      <c r="J76" s="14" t="inlineStr">
         <is>
           <t>45000000</t>
         </is>
       </c>
-      <c r="K76" s="1" t="inlineStr"/>
-      <c r="L76" s="1" t="inlineStr"/>
-      <c r="M76" s="1" t="inlineStr"/>
-      <c r="N76" s="1" t="inlineStr"/>
-      <c r="O76" s="1" t="inlineStr"/>
-      <c r="P76" s="1" t="inlineStr"/>
-      <c r="Q76" s="1" t="inlineStr"/>
-      <c r="R76" s="1" t="inlineStr"/>
-      <c r="S76" s="1" t="inlineStr"/>
-      <c r="T76" s="1" t="inlineStr"/>
-      <c r="U76" s="1" t="inlineStr"/>
-      <c r="V76" s="1" t="inlineStr"/>
-      <c r="W76" s="1" t="inlineStr"/>
+      <c r="K76" s="9" t="inlineStr"/>
+      <c r="L76" s="9" t="inlineStr"/>
+      <c r="M76" s="9" t="inlineStr"/>
+      <c r="N76" s="9" t="inlineStr"/>
+      <c r="O76" s="9" t="inlineStr"/>
+      <c r="P76" s="9" t="inlineStr"/>
+      <c r="Q76" s="9" t="inlineStr"/>
+      <c r="R76" s="9" t="inlineStr"/>
+      <c r="S76" s="9" t="inlineStr"/>
+      <c r="T76" s="9" t="inlineStr"/>
+      <c r="U76" s="9" t="inlineStr"/>
+      <c r="V76" s="9" t="inlineStr"/>
+      <c r="W76" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr"/>
-      <c r="D77" s="1" t="inlineStr"/>
-      <c r="E77" s="26" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 45000000.00
+Borrower Amount: 45000000.00</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr"/>
+      <c r="D77" s="9" t="inlineStr"/>
+      <c r="E77" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Interunit Loan A/C-Geo Textile Unit., BBL# 0002</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="1" t="inlineStr"/>
-      <c r="I77" s="1" t="inlineStr"/>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="1" t="inlineStr"/>
-      <c r="L77" s="1" t="inlineStr"/>
-      <c r="M77" s="1" t="inlineStr"/>
-      <c r="N77" s="1" t="inlineStr"/>
-      <c r="O77" s="1" t="inlineStr"/>
-      <c r="P77" s="1" t="inlineStr"/>
-      <c r="Q77" s="1" t="inlineStr"/>
-      <c r="R77" s="1" t="inlineStr"/>
-      <c r="S77" s="1" t="inlineStr"/>
-      <c r="T77" s="1" t="inlineStr"/>
-      <c r="U77" s="1" t="inlineStr"/>
-      <c r="V77" s="1" t="inlineStr"/>
-      <c r="W77" s="1" t="inlineStr"/>
+      <c r="F77" s="9" t="inlineStr"/>
+      <c r="G77" s="9" t="inlineStr"/>
+      <c r="H77" s="9" t="inlineStr"/>
+      <c r="I77" s="9" t="inlineStr"/>
+      <c r="J77" s="9" t="inlineStr"/>
+      <c r="K77" s="9" t="inlineStr"/>
+      <c r="L77" s="9" t="inlineStr"/>
+      <c r="M77" s="9" t="inlineStr"/>
+      <c r="N77" s="9" t="inlineStr"/>
+      <c r="O77" s="9" t="inlineStr"/>
+      <c r="P77" s="9" t="inlineStr"/>
+      <c r="Q77" s="9" t="inlineStr"/>
+      <c r="R77" s="9" t="inlineStr"/>
+      <c r="S77" s="9" t="inlineStr"/>
+      <c r="T77" s="9" t="inlineStr"/>
+      <c r="U77" s="9" t="inlineStr"/>
+      <c r="V77" s="9" t="inlineStr"/>
+      <c r="W77" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr"/>
-      <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="inlineStr"/>
+      <c r="C78" s="9" t="inlineStr"/>
+      <c r="D78" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E78" s="27" t="inlineStr">
+      <c r="E78" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr"/>
-      <c r="J78" s="1" t="inlineStr"/>
-      <c r="K78" s="1" t="inlineStr"/>
-      <c r="L78" s="1" t="inlineStr"/>
-      <c r="M78" s="1" t="inlineStr"/>
-      <c r="N78" s="1" t="inlineStr"/>
-      <c r="O78" s="1" t="inlineStr"/>
-      <c r="P78" s="1" t="inlineStr"/>
-      <c r="Q78" s="1" t="inlineStr"/>
-      <c r="R78" s="1" t="inlineStr"/>
-      <c r="S78" s="1" t="inlineStr"/>
-      <c r="T78" s="1" t="inlineStr"/>
-      <c r="U78" s="1" t="inlineStr"/>
-      <c r="V78" s="1" t="inlineStr"/>
-      <c r="W78" s="1" t="inlineStr"/>
+      <c r="F78" s="9" t="inlineStr"/>
+      <c r="G78" s="9" t="inlineStr"/>
+      <c r="H78" s="9" t="inlineStr"/>
+      <c r="I78" s="9" t="inlineStr"/>
+      <c r="J78" s="9" t="inlineStr"/>
+      <c r="K78" s="9" t="inlineStr"/>
+      <c r="L78" s="9" t="inlineStr"/>
+      <c r="M78" s="9" t="inlineStr"/>
+      <c r="N78" s="9" t="inlineStr"/>
+      <c r="O78" s="9" t="inlineStr"/>
+      <c r="P78" s="9" t="inlineStr"/>
+      <c r="Q78" s="9" t="inlineStr"/>
+      <c r="R78" s="9" t="inlineStr"/>
+      <c r="S78" s="9" t="inlineStr"/>
+      <c r="T78" s="9" t="inlineStr"/>
+      <c r="U78" s="9" t="inlineStr"/>
+      <c r="V78" s="9" t="inlineStr"/>
+      <c r="W78" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr"/>
-      <c r="C79" s="6" t="inlineStr">
+      <c r="A79" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B79" s="18" t="inlineStr"/>
+      <c r="C79" s="19" t="inlineStr">
         <is>
           <t>28/Dec/2025</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D79" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E79" s="7" t="inlineStr">
+      <c r="E79" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="25" t="inlineStr">
+      <c r="F79" s="17" t="inlineStr"/>
+      <c r="G79" s="17" t="inlineStr"/>
+      <c r="H79" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I79" s="1" t="inlineStr">
+      <c r="I79" s="17" t="inlineStr">
         <is>
           <t>73094</t>
         </is>
       </c>
-      <c r="J79" s="8" t="inlineStr">
+      <c r="J79" s="22" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="K79" s="1" t="inlineStr"/>
-      <c r="L79" s="1" t="inlineStr"/>
-      <c r="M79" s="1" t="inlineStr"/>
-      <c r="N79" s="1" t="inlineStr"/>
-      <c r="O79" s="1" t="inlineStr"/>
-      <c r="P79" s="1" t="inlineStr"/>
-      <c r="Q79" s="1" t="inlineStr"/>
-      <c r="R79" s="1" t="inlineStr"/>
-      <c r="S79" s="1" t="inlineStr"/>
-      <c r="T79" s="1" t="inlineStr"/>
-      <c r="U79" s="1" t="inlineStr"/>
-      <c r="V79" s="1" t="inlineStr"/>
-      <c r="W79" s="1" t="inlineStr"/>
+      <c r="K79" s="17" t="inlineStr"/>
+      <c r="L79" s="17" t="inlineStr"/>
+      <c r="M79" s="17" t="inlineStr"/>
+      <c r="N79" s="17" t="inlineStr"/>
+      <c r="O79" s="17" t="inlineStr"/>
+      <c r="P79" s="17" t="inlineStr"/>
+      <c r="Q79" s="17" t="inlineStr"/>
+      <c r="R79" s="17" t="inlineStr"/>
+      <c r="S79" s="17" t="inlineStr"/>
+      <c r="T79" s="17" t="inlineStr"/>
+      <c r="U79" s="17" t="inlineStr"/>
+      <c r="V79" s="17" t="inlineStr"/>
+      <c r="W79" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="1" t="inlineStr"/>
-      <c r="E80" s="26" t="inlineStr">
+      <c r="A80" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 100000.00
+Borrower Amount: 100000.00</t>
+        </is>
+      </c>
+      <c r="C80" s="17" t="inlineStr"/>
+      <c r="D80" s="17" t="inlineStr"/>
+      <c r="E80" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Interunit Loan A/C-Geo Textile Unit., BBL#0002</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="1" t="inlineStr"/>
-      <c r="I80" s="1" t="inlineStr"/>
-      <c r="J80" s="1" t="inlineStr"/>
-      <c r="K80" s="1" t="inlineStr"/>
-      <c r="L80" s="1" t="inlineStr"/>
-      <c r="M80" s="1" t="inlineStr"/>
-      <c r="N80" s="1" t="inlineStr"/>
-      <c r="O80" s="1" t="inlineStr"/>
-      <c r="P80" s="1" t="inlineStr"/>
-      <c r="Q80" s="1" t="inlineStr"/>
-      <c r="R80" s="1" t="inlineStr"/>
-      <c r="S80" s="1" t="inlineStr"/>
-      <c r="T80" s="1" t="inlineStr"/>
-      <c r="U80" s="1" t="inlineStr"/>
-      <c r="V80" s="1" t="inlineStr"/>
-      <c r="W80" s="1" t="inlineStr"/>
+      <c r="F80" s="17" t="inlineStr"/>
+      <c r="G80" s="17" t="inlineStr"/>
+      <c r="H80" s="17" t="inlineStr"/>
+      <c r="I80" s="17" t="inlineStr"/>
+      <c r="J80" s="17" t="inlineStr"/>
+      <c r="K80" s="17" t="inlineStr"/>
+      <c r="L80" s="17" t="inlineStr"/>
+      <c r="M80" s="17" t="inlineStr"/>
+      <c r="N80" s="17" t="inlineStr"/>
+      <c r="O80" s="17" t="inlineStr"/>
+      <c r="P80" s="17" t="inlineStr"/>
+      <c r="Q80" s="17" t="inlineStr"/>
+      <c r="R80" s="17" t="inlineStr"/>
+      <c r="S80" s="17" t="inlineStr"/>
+      <c r="T80" s="17" t="inlineStr"/>
+      <c r="U80" s="17" t="inlineStr"/>
+      <c r="V80" s="17" t="inlineStr"/>
+      <c r="W80" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr"/>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr">
+      <c r="A81" s="17" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B81" s="18" t="inlineStr"/>
+      <c r="C81" s="17" t="inlineStr"/>
+      <c r="D81" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E81" s="27" t="inlineStr">
+      <c r="E81" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
-      <c r="I81" s="1" t="inlineStr"/>
-      <c r="J81" s="1" t="inlineStr"/>
-      <c r="K81" s="1" t="inlineStr"/>
-      <c r="L81" s="1" t="inlineStr"/>
-      <c r="M81" s="1" t="inlineStr"/>
-      <c r="N81" s="1" t="inlineStr"/>
-      <c r="O81" s="1" t="inlineStr"/>
-      <c r="P81" s="1" t="inlineStr"/>
-      <c r="Q81" s="1" t="inlineStr"/>
-      <c r="R81" s="1" t="inlineStr"/>
-      <c r="S81" s="1" t="inlineStr"/>
-      <c r="T81" s="1" t="inlineStr"/>
-      <c r="U81" s="1" t="inlineStr"/>
-      <c r="V81" s="1" t="inlineStr"/>
-      <c r="W81" s="1" t="inlineStr"/>
+      <c r="F81" s="17" t="inlineStr"/>
+      <c r="G81" s="17" t="inlineStr"/>
+      <c r="H81" s="17" t="inlineStr"/>
+      <c r="I81" s="17" t="inlineStr"/>
+      <c r="J81" s="17" t="inlineStr"/>
+      <c r="K81" s="17" t="inlineStr"/>
+      <c r="L81" s="17" t="inlineStr"/>
+      <c r="M81" s="17" t="inlineStr"/>
+      <c r="N81" s="17" t="inlineStr"/>
+      <c r="O81" s="17" t="inlineStr"/>
+      <c r="P81" s="17" t="inlineStr"/>
+      <c r="Q81" s="17" t="inlineStr"/>
+      <c r="R81" s="17" t="inlineStr"/>
+      <c r="S81" s="17" t="inlineStr"/>
+      <c r="T81" s="17" t="inlineStr"/>
+      <c r="U81" s="17" t="inlineStr"/>
+      <c r="V81" s="17" t="inlineStr"/>
+      <c r="W81" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
@@ -4351,7 +4390,7 @@
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B88" s="10" t="inlineStr"/>
@@ -4408,7 +4447,7 @@
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B89" s="10" t="inlineStr"/>
@@ -4449,7 +4488,7 @@
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B90" s="10" t="inlineStr"/>
@@ -4490,7 +4529,7 @@
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B91" s="10" t="inlineStr"/>
@@ -4531,7 +4570,7 @@
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B92" s="10" t="inlineStr"/>
@@ -4572,7 +4611,7 @@
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B93" s="10" t="inlineStr"/>
@@ -4613,7 +4652,7 @@
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B94" s="10" t="inlineStr">
@@ -4656,7 +4695,7 @@
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="B95" s="10" t="inlineStr"/>
@@ -4709,7 +4748,7 @@
       <c r="H96" s="1" t="inlineStr"/>
       <c r="I96" s="1" t="inlineStr"/>
       <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="28" t="inlineStr">
+      <c r="K96" s="25" t="inlineStr">
         <is>
           <t>177614081</t>
         </is>
@@ -4746,7 +4785,7 @@
       <c r="H97" s="1" t="inlineStr"/>
       <c r="I97" s="1" t="inlineStr"/>
       <c r="J97" s="1" t="inlineStr"/>
-      <c r="K97" s="28" t="inlineStr">
+      <c r="K97" s="25" t="inlineStr">
         <is>
           <t>525572707.48</t>
         </is>
@@ -4779,7 +4818,7 @@
       <c r="H98" s="1" t="inlineStr"/>
       <c r="I98" s="1" t="inlineStr"/>
       <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="28" t="inlineStr">
+      <c r="K98" s="25" t="inlineStr">
         <is>
           <t>703186788.48</t>
         </is>
